--- a/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
+++ b/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
@@ -407,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1649,7 +1649,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
+++ b/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="21000" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -465,10 +465,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,9 +488,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,43 +541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,46 +549,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +564,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,7 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +646,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,37 +724,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,31 +754,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,79 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,17 +935,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,6 +955,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,15 +1018,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1040,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,16 +1052,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,115 +1070,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1649,7 +1649,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
+++ b/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11610"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>领域</t>
   </si>
@@ -408,9 +408,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -465,24 +465,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +487,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -503,7 +509,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,6 +523,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -525,15 +539,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -555,18 +570,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -580,7 +587,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,14 +595,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,13 +634,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,19 +772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,67 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,67 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,6 +945,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -959,37 +974,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,6 +1021,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1040,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,16 +1052,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,115 +1070,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1648,8 +1648,8 @@
   <sheetPr/>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2661,7 +2661,7 @@
     <mergeCell ref="U4:U6"/>
     <mergeCell ref="A9:P11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
+++ b/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="108">
   <si>
     <t>领域</t>
   </si>
@@ -409,8 +409,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -466,58 +466,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,7 +510,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -548,20 +541,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -577,17 +564,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,6 +581,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,13 +634,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,13 +748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,19 +772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,109 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,63 +935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1024,6 +967,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1032,6 +1023,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1040,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,133 +1052,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1648,7 +1648,7 @@
   <sheetPr/>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
+++ b/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
@@ -466,15 +466,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,6 +481,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,14 +508,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -525,21 +523,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -550,7 +533,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,14 +548,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,8 +585,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,7 +634,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,85 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,31 +754,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,31 +790,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,54 +936,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1013,13 +965,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,6 +1012,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1040,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,16 +1052,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,115 +1070,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1649,7 +1649,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
+++ b/吉利巡展资料/A展小程序B展H5应用系统服务器申请清单-2019030720190308162443_x.xlsx
@@ -407,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -466,16 +466,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,15 +495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,6 +511,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -515,9 +526,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,7 +551,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,15 +566,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,31 +595,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,7 +634,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,49 +760,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,103 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,36 +935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1004,20 +974,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,6 +999,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1040,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,16 +1052,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,115 +1070,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
